--- a/trend_results/Lakes/OmanukaLagoon_28ce64213c.xlsx
+++ b/trend_results/Lakes/OmanukaLagoon_28ce64213c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>site name</t>
   </si>
@@ -121,25 +121,16 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -521,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,31 +606,31 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.134144064028568</v>
+        <v>0.7829992786196029</v>
       </c>
       <c r="G2">
-        <v>0.0714285714285714</v>
+        <v>0.0645161290322581</v>
       </c>
       <c r="H2">
-        <v>0.892857142857143</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>1.95529691935548</v>
+        <v>-1.73378164556962</v>
       </c>
       <c r="L2">
-        <v>-0.981156481534898</v>
+        <v>-9.118344172452041</v>
       </c>
       <c r="M2">
-        <v>5.8378635992012</v>
+        <v>2.14006145499561</v>
       </c>
       <c r="N2">
-        <v>13.0353127957032</v>
+        <v>-12.3841546112116</v>
       </c>
       <c r="O2" t="s">
         <v>34</v>
@@ -654,19 +645,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>43</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -686,31 +677,31 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.324493301699201</v>
+        <v>0.830263911797121</v>
       </c>
       <c r="G3">
-        <v>0.0714285714285714</v>
+        <v>0.161290322580645</v>
       </c>
       <c r="H3">
-        <v>0.75</v>
+        <v>0.806451612903226</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>40.5</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>2.49333218568145</v>
+        <v>-6.82254836557705</v>
       </c>
       <c r="L3">
-        <v>-5.58131375209213</v>
+        <v>-18.8669311189899</v>
       </c>
       <c r="M3">
-        <v>12.6736463929437</v>
+        <v>7.5620597008512</v>
       </c>
       <c r="N3">
-        <v>6.15637576711468</v>
+        <v>-14.2136424282855</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -725,19 +716,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
         <v>42</v>
       </c>
-      <c r="T3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>44</v>
-      </c>
-      <c r="V3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -754,34 +745,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>0.6450781617654729</v>
+        <v>0.344497033372844</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H4">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0.0290277134552186</v>
+        <v>0.0307999828541029</v>
       </c>
       <c r="K4">
-        <v>-0.0027100360354084</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.0171461398380776</v>
+        <v>-0.008120164019688901</v>
       </c>
       <c r="M4">
-        <v>0.013485399769604</v>
+        <v>0.0189839396326606</v>
       </c>
       <c r="N4">
-        <v>-9.336029996262869</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
@@ -796,19 +787,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s">
         <v>42</v>
       </c>
-      <c r="T4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>45</v>
-      </c>
-      <c r="W4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -828,13 +819,13 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>0.907293138462552</v>
+        <v>0.560599499463641</v>
       </c>
       <c r="G5">
-        <v>0.607142857142857</v>
+        <v>0.5483870967741939</v>
       </c>
       <c r="H5">
-        <v>0.392857142857143</v>
+        <v>0.451612903225806</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -858,7 +849,7 @@
         <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1797547.81965</v>
@@ -867,19 +858,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" t="s">
         <v>42</v>
       </c>
-      <c r="T5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>45</v>
-      </c>
-      <c r="W5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -899,37 +890,37 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>0.220965506005606</v>
+        <v>0.190963924892926</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.835</v>
+        <v>7.64</v>
       </c>
       <c r="K6">
-        <v>-0.07292865448504959</v>
+        <v>-0.07789691943127949</v>
       </c>
       <c r="L6">
-        <v>-0.287199982201327</v>
+        <v>-0.230404862590521</v>
       </c>
       <c r="M6">
-        <v>0.112002922274776</v>
+        <v>0.0512342890826818</v>
       </c>
       <c r="N6">
-        <v>-0.930806055967449</v>
+        <v>-1.01959318627329</v>
       </c>
       <c r="O6" t="s">
         <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1797547.81965</v>
@@ -938,16 +929,16 @@
         <v>5533206.57498</v>
       </c>
       <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" t="s">
         <v>42</v>
-      </c>
-      <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -967,37 +958,37 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>0.106538891657075</v>
+        <v>0.533876830572384</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.928571428571429</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="K7">
-        <v>0.104185509327722</v>
+        <v>-0.0142490247074121</v>
       </c>
       <c r="L7">
-        <v>-0.0481647044399268</v>
+        <v>-0.251091198745899</v>
       </c>
       <c r="M7">
-        <v>0.278505140789125</v>
+        <v>0.192447325760324</v>
       </c>
       <c r="N7">
-        <v>5.20927546638608</v>
+        <v>-0.701922399379908</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7">
         <v>1797547.81965</v>
@@ -1006,19 +997,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" t="s">
         <v>42</v>
       </c>
-      <c r="T7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" t="s">
-        <v>45</v>
-      </c>
       <c r="W7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1038,7 +1029,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>0.0127914065568864</v>
+        <v>0.5271014783639471</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1050,25 +1041,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1785</v>
+        <v>0.204</v>
       </c>
       <c r="K8">
-        <v>0.0463525154594556</v>
+        <v>-0.0017067757009345</v>
       </c>
       <c r="L8">
-        <v>0.0114721145734276</v>
+        <v>-0.0464365985784196</v>
       </c>
       <c r="M8">
-        <v>0.105782962624929</v>
+        <v>0.0426797749738406</v>
       </c>
       <c r="N8">
-        <v>25.9677957756054</v>
+        <v>-0.836654755360089</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q8">
         <v>1797547.81965</v>
@@ -1077,19 +1068,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" t="s">
         <v>42</v>
       </c>
-      <c r="T8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V8" t="s">
-        <v>45</v>
-      </c>
       <c r="W8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1109,13 +1100,13 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>0.0577387978575096</v>
+        <v>0.186897743270856</v>
       </c>
       <c r="G9">
-        <v>0.119047619047619</v>
+        <v>0.122448979591837</v>
       </c>
       <c r="H9">
-        <v>0.80952380952381</v>
+        <v>0.795918367346939</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1124,22 +1115,22 @@
         <v>14</v>
       </c>
       <c r="K9">
-        <v>1.16273356401384</v>
+        <v>0.578203919632065</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-0.671226047657702</v>
       </c>
       <c r="M9">
-        <v>2.75281625417189</v>
+        <v>1.66433986450096</v>
       </c>
       <c r="N9">
-        <v>8.305239742955999</v>
+        <v>4.13002799737189</v>
       </c>
       <c r="O9" t="s">
         <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q9">
         <v>1797547.81965</v>
@@ -1148,19 +1139,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" t="s">
         <v>42</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>43</v>
-      </c>
-      <c r="U9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,7 +1159,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1177,40 +1168,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>0.83696417328096</v>
+        <v>0.6756080435084419</v>
       </c>
       <c r="G10">
-        <v>0.571428571428571</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="H10">
-        <v>0.428571428571429</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.0025</v>
+        <v>47.6</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-0.741875423155044</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-6.07668033198242</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.30154930467834</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>-1.55856181335093</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>1797547.81965</v>
@@ -1219,19 +1210,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" t="s">
         <v>42</v>
       </c>
-      <c r="T10" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>44</v>
-      </c>
-      <c r="V10" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,7 +1230,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1248,40 +1239,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>0.538862720403962</v>
+        <v>0.682453920654682</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.530612244897959</v>
       </c>
       <c r="H11">
-        <v>0.904761904761905</v>
+        <v>0.469387755102041</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2.155</v>
+        <v>0.0025</v>
       </c>
       <c r="K11">
-        <v>-0.0051155462184875</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.0893604497342487</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.066299173766945</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>-0.237380334964618</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
         <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
         <v>1797547.81965</v>
@@ -1290,19 +1281,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" t="s">
         <v>42</v>
       </c>
-      <c r="T11" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>45</v>
-      </c>
-      <c r="W11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1322,31 +1313,31 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.123036354414647</v>
+        <v>0.765550773798423</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.880952380952381</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.178</v>
+        <v>2.03</v>
       </c>
       <c r="K12">
-        <v>0.0103372641509434</v>
+        <v>-0.0270700093113401</v>
       </c>
       <c r="L12">
-        <v>-0.0021464558561215</v>
+        <v>-0.107528729461577</v>
       </c>
       <c r="M12">
-        <v>0.0290856374975383</v>
+        <v>0.0334799292940978</v>
       </c>
       <c r="N12">
-        <v>5.80745177019292</v>
+        <v>-1.33349799563252</v>
       </c>
       <c r="O12" t="s">
         <v>34</v>
@@ -1361,19 +1352,90 @@
         <v>5533206.57498</v>
       </c>
       <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" t="s">
         <v>42</v>
       </c>
-      <c r="T12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" t="s">
-        <v>44</v>
-      </c>
-      <c r="V12" t="s">
-        <v>45</v>
-      </c>
       <c r="W12" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>0.278851166470652</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.8979591836734691</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.178</v>
+      </c>
+      <c r="K13">
+        <v>0.0037335980700527</v>
+      </c>
+      <c r="L13">
+        <v>-0.0057360380772398</v>
+      </c>
+      <c r="M13">
+        <v>0.0153863702073465</v>
+      </c>
+      <c r="N13">
+        <v>2.09752700564763</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13">
+        <v>1797547.81965</v>
+      </c>
+      <c r="R13">
+        <v>5533206.57498</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/trend_results/Lakes/OmanukaLagoon_28ce64213c.xlsx
+++ b/trend_results/Lakes/OmanukaLagoon_28ce64213c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Omanuka Lagoon</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
@@ -121,12 +127,12 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
   </si>
   <si>
     <t>West_6</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -512,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.7829992786196029</v>
+        <v>0.429024230978871</v>
       </c>
       <c r="G2">
-        <v>0.0645161290322581</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.903225806451613</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>0.0022</v>
       </c>
       <c r="K2">
-        <v>-1.73378164556962</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>-9.118344172452041</v>
+        <v>-0.0010195670993232</v>
       </c>
       <c r="M2">
-        <v>2.14006145499561</v>
+        <v>0.0039372260679095</v>
       </c>
       <c r="N2">
-        <v>-12.3841546112116</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2">
         <v>1797547.81965</v>
@@ -645,19 +654,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -674,40 +683,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>0.830263911797121</v>
+        <v>0.7829992786196029</v>
       </c>
       <c r="G3">
-        <v>0.161290322580645</v>
+        <v>0.0645161290322581</v>
       </c>
       <c r="H3">
-        <v>0.806451612903226</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>-6.82254836557705</v>
+        <v>-1.73378164556962</v>
       </c>
       <c r="L3">
-        <v>-18.8669311189899</v>
+        <v>-9.118344172452041</v>
       </c>
       <c r="M3">
-        <v>7.5620597008512</v>
+        <v>2.14006145499561</v>
       </c>
       <c r="N3">
-        <v>-14.2136424282855</v>
+        <v>-12.3841546112116</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q3">
         <v>1797547.81965</v>
@@ -716,19 +725,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -745,40 +754,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>0.344497033372844</v>
+        <v>0.830263911797121</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
+        <v>0.161290322580645</v>
       </c>
       <c r="H4">
-        <v>0.7333333333333329</v>
+        <v>0.806451612903226</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.0307999828541029</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-6.82254836557705</v>
       </c>
       <c r="L4">
-        <v>-0.008120164019688901</v>
+        <v>-18.8669311189899</v>
       </c>
       <c r="M4">
-        <v>0.0189839396326606</v>
+        <v>7.5620597008512</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-14.2136424282855</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q4">
         <v>1797547.81965</v>
@@ -787,19 +796,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -816,40 +825,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>0.560599499463641</v>
+        <v>0.344497033372844</v>
       </c>
       <c r="G5">
-        <v>0.5483870967741939</v>
+        <v>0.3</v>
       </c>
       <c r="H5">
-        <v>0.451612903225806</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.0025</v>
+        <v>0.0307999828541029</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.008120164019688901</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0189839396326606</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q5">
         <v>1797547.81965</v>
@@ -858,19 +867,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -887,37 +896,37 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>0.190963924892926</v>
+        <v>0.560599499463641</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.5483870967741939</v>
       </c>
       <c r="H6">
-        <v>0.966666666666667</v>
+        <v>0.451612903225806</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>7.64</v>
+        <v>0.0025</v>
       </c>
       <c r="K6">
-        <v>-0.07789691943127949</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.230404862590521</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0512342890826818</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-1.01959318627329</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
         <v>37</v>
@@ -929,16 +938,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,40 +967,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>0.533876830572384</v>
+        <v>0.190963924892926</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.903225806451613</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.03</v>
+        <v>7.64</v>
       </c>
       <c r="K7">
-        <v>-0.0142490247074121</v>
+        <v>-0.07789691943127949</v>
       </c>
       <c r="L7">
-        <v>-0.251091198745899</v>
+        <v>-0.230404862590521</v>
       </c>
       <c r="M7">
-        <v>0.192447325760324</v>
+        <v>0.0512342890826818</v>
       </c>
       <c r="N7">
-        <v>-0.701922399379908</v>
+        <v>-1.01959318627329</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q7">
         <v>1797547.81965</v>
@@ -997,19 +1009,16 @@
         <v>5533206.57498</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>0.5271014783639471</v>
+        <v>0.533876830572384</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.204</v>
+        <v>2.03</v>
       </c>
       <c r="K8">
-        <v>-0.0017067757009345</v>
+        <v>-0.0142490247074121</v>
       </c>
       <c r="L8">
-        <v>-0.0464365985784196</v>
+        <v>-0.251091198745899</v>
       </c>
       <c r="M8">
-        <v>0.0426797749738406</v>
+        <v>0.192447325760324</v>
       </c>
       <c r="N8">
-        <v>-0.836654755360089</v>
+        <v>-0.701922399379908</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q8">
         <v>1797547.81965</v>
@@ -1068,19 +1077,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1088,49 +1097,49 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>0.186897743270856</v>
+        <v>0.5271014783639471</v>
       </c>
       <c r="G9">
-        <v>0.122448979591837</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.795918367346939</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>0.204</v>
       </c>
       <c r="K9">
-        <v>0.578203919632065</v>
+        <v>-0.0017067757009345</v>
       </c>
       <c r="L9">
-        <v>-0.671226047657702</v>
+        <v>-0.0464365985784196</v>
       </c>
       <c r="M9">
-        <v>1.66433986450096</v>
+        <v>0.0426797749738406</v>
       </c>
       <c r="N9">
-        <v>4.13002799737189</v>
+        <v>-0.836654755360089</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q9">
         <v>1797547.81965</v>
@@ -1139,19 +1148,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,40 +1177,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0.6756080435084419</v>
+        <v>0.186897743270856</v>
       </c>
       <c r="G10">
-        <v>0.130434782608696</v>
+        <v>0.122448979591837</v>
       </c>
       <c r="H10">
-        <v>0.7173913043478261</v>
+        <v>0.795918367346939</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>47.6</v>
+        <v>14</v>
       </c>
       <c r="K10">
-        <v>-0.741875423155044</v>
+        <v>0.578203919632065</v>
       </c>
       <c r="L10">
-        <v>-6.07668033198242</v>
+        <v>-0.671226047657702</v>
       </c>
       <c r="M10">
-        <v>3.30154930467834</v>
+        <v>1.66433986450096</v>
       </c>
       <c r="N10">
-        <v>-1.55856181335093</v>
+        <v>4.13002799737189</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>1797547.81965</v>
@@ -1210,19 +1219,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1230,7 +1239,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1239,40 +1248,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>0.682453920654682</v>
+        <v>0.6756080435084419</v>
       </c>
       <c r="G11">
-        <v>0.530612244897959</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="H11">
-        <v>0.469387755102041</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.0025</v>
+        <v>47.6</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-0.741875423155044</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-6.07668033198242</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.30154930467834</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>-1.55856181335093</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q11">
         <v>1797547.81965</v>
@@ -1281,19 +1290,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1301,7 +1310,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1310,40 +1319,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>0.765550773798423</v>
+        <v>0.682453920654682</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.530612244897959</v>
       </c>
       <c r="H12">
-        <v>0.877551020408163</v>
+        <v>0.469387755102041</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>2.03</v>
+        <v>0.0025</v>
       </c>
       <c r="K12">
-        <v>-0.0270700093113401</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.107528729461577</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0334799292940978</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-1.33349799563252</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q12">
         <v>1797547.81965</v>
@@ -1352,19 +1361,19 @@
         <v>5533206.57498</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>0.278851166470652</v>
+        <v>0.765550773798423</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.8979591836734691</v>
+        <v>0.877551020408163</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.178</v>
+        <v>2.03</v>
       </c>
       <c r="K13">
-        <v>0.0037335980700527</v>
+        <v>-0.0270700093113401</v>
       </c>
       <c r="L13">
-        <v>-0.0057360380772398</v>
+        <v>-0.107528729461577</v>
       </c>
       <c r="M13">
-        <v>0.0153863702073465</v>
+        <v>0.0334799292940978</v>
       </c>
       <c r="N13">
-        <v>2.09752700564763</v>
+        <v>-1.33349799563252</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
         <v>38</v>
@@ -1423,19 +1432,90 @@
         <v>5533206.57498</v>
       </c>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>0.278851166470652</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.8979591836734691</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.178</v>
+      </c>
+      <c r="K14">
+        <v>0.0037335980700527</v>
+      </c>
+      <c r="L14">
+        <v>-0.0057360380772398</v>
+      </c>
+      <c r="M14">
+        <v>0.0153863702073465</v>
+      </c>
+      <c r="N14">
+        <v>2.09752700564763</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" t="s">
         <v>40</v>
       </c>
-      <c r="U13" t="s">
+      <c r="Q14">
+        <v>1797547.81965</v>
+      </c>
+      <c r="R14">
+        <v>5533206.57498</v>
+      </c>
+      <c r="S14" t="s">
         <v>41</v>
       </c>
-      <c r="V13" t="s">
+      <c r="T14" t="s">
         <v>42</v>
       </c>
-      <c r="W13" t="s">
-        <v>46</v>
+      <c r="U14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
